--- a/old_image/contract.xlsx
+++ b/old_image/contract.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="725">
   <si>
     <t>Path</t>
   </si>
@@ -395,7 +395,7 @@
     <t>Contract.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>amended | appended | cancelled | disputed | entered-in-error | executable +</t>
   </si>
   <si>
     <t>The status of the resource instance.</t>
@@ -887,10 +887,7 @@
     <t>Contract.contentDefinition.publicationStatus</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown.</t>
+    <t>amended | appended | cancelled | disputed | entered-in-error | executable +.</t>
   </si>
   <si>
     <t>Status of the publication of contract content.</t>
@@ -7020,10 +7017,10 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7053,10 +7050,10 @@
         <v>126</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -7100,7 +7097,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7123,13 +7120,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7180,7 +7177,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7232,10 +7229,10 @@
         <v>242</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7286,7 +7283,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -7304,7 +7301,7 @@
         <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>155</v>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7418,7 +7415,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7526,7 +7523,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7636,7 +7633,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7662,10 +7659,10 @@
         <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7716,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7734,7 +7731,7 @@
         <v>108</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -7742,7 +7739,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7768,10 +7765,10 @@
         <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7822,7 +7819,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7840,15 +7837,15 @@
         <v>161</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7874,10 +7871,10 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7928,7 +7925,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7946,15 +7943,15 @@
         <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7980,10 +7977,10 @@
         <v>224</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8034,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8086,10 +8083,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8119,11 +8116,11 @@
         <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -8158,7 +8155,7 @@
         <v>233</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>155</v>
@@ -8166,7 +8163,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8192,10 +8189,10 @@
         <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8225,11 +8222,11 @@
         <v>151</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -8264,7 +8261,7 @@
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>155</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8298,10 +8295,10 @@
         <v>116</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8352,7 +8349,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -8378,7 +8375,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8404,14 +8401,14 @@
         <v>242</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -8460,7 +8457,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -8486,7 +8483,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8592,7 +8589,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8700,7 +8697,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8810,7 +8807,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8833,13 +8830,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8890,7 +8887,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8939,13 +8936,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8975,11 +8972,11 @@
         <v>151</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
       </c>
@@ -8996,7 +8993,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>48</v>
@@ -9022,7 +9019,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9045,13 +9042,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9081,11 +9078,11 @@
         <v>151</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -9128,7 +9125,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9151,13 +9148,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9187,11 +9184,11 @@
         <v>151</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
       </c>
@@ -9208,7 +9205,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -9234,7 +9231,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9260,10 +9257,10 @@
         <v>242</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9314,7 +9311,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -9332,7 +9329,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -9340,7 +9337,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9446,7 +9443,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9554,7 +9551,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9664,7 +9661,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9690,10 +9687,10 @@
         <v>104</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9744,7 +9741,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9770,7 +9767,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9796,10 +9793,10 @@
         <v>242</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9850,7 +9847,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9876,7 +9873,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9982,7 +9979,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10090,7 +10087,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10200,7 +10197,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10223,13 +10220,13 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10280,7 +10277,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>48</v>
@@ -10306,7 +10303,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10332,10 +10329,10 @@
         <v>133</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10365,11 +10362,11 @@
         <v>151</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>39</v>
       </c>
@@ -10386,7 +10383,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>48</v>
@@ -10412,7 +10409,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10438,16 +10435,16 @@
         <v>177</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -10496,7 +10493,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -10511,10 +10508,10 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -10522,7 +10519,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10548,10 +10545,10 @@
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10581,11 +10578,11 @@
         <v>151</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>39</v>
       </c>
@@ -10602,7 +10599,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10620,7 +10617,7 @@
         <v>39</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>155</v>
@@ -10628,7 +10625,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10654,14 +10651,14 @@
         <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -10689,11 +10686,11 @@
         <v>137</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>39</v>
       </c>
@@ -10710,7 +10707,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10728,7 +10725,7 @@
         <v>39</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>155</v>
@@ -10736,7 +10733,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10762,10 +10759,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10795,11 +10792,11 @@
         <v>151</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>39</v>
       </c>
@@ -10816,7 +10813,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10842,7 +10839,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10868,10 +10865,10 @@
         <v>242</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10922,7 +10919,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10948,7 +10945,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11054,7 +11051,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,7 +11159,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11272,7 +11269,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11295,13 +11292,13 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11352,7 +11349,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>48</v>
@@ -11378,7 +11375,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11404,10 +11401,10 @@
         <v>116</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11458,7 +11455,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11476,7 +11473,7 @@
         <v>39</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -11484,7 +11481,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11510,10 +11507,10 @@
         <v>116</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11564,7 +11561,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11582,7 +11579,7 @@
         <v>39</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -11590,7 +11587,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11613,13 +11610,13 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11670,7 +11667,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11696,7 +11693,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11722,10 +11719,10 @@
         <v>242</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11776,7 +11773,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11794,7 +11791,7 @@
         <v>39</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11908,7 +11905,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12016,7 +12013,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12126,7 +12123,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12152,10 +12149,10 @@
         <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12185,11 +12182,11 @@
         <v>151</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
       </c>
@@ -12206,7 +12203,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12258,10 +12255,10 @@
         <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12291,11 +12288,11 @@
         <v>151</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -12312,7 +12309,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -12338,7 +12335,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12364,10 +12361,10 @@
         <v>177</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12418,7 +12415,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -12444,7 +12441,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12470,10 +12467,10 @@
         <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12503,11 +12500,11 @@
         <v>151</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
       </c>
@@ -12524,7 +12521,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12550,7 +12547,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12573,13 +12570,13 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12609,11 +12606,11 @@
         <v>137</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
       </c>
@@ -12630,7 +12627,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12648,7 +12645,7 @@
         <v>39</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12682,10 +12679,10 @@
         <v>242</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12736,7 +12733,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12762,7 +12759,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12868,7 +12865,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12976,7 +12973,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13086,7 +13083,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13112,10 +13109,10 @@
         <v>177</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13166,7 +13163,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -13192,7 +13189,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13218,10 +13215,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13251,11 +13248,11 @@
         <v>151</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>39</v>
       </c>
@@ -13272,7 +13269,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13324,10 +13321,10 @@
         <v>116</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13378,7 +13375,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13404,7 +13401,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13430,10 +13427,10 @@
         <v>116</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13484,7 +13481,7 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13510,7 +13507,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13536,10 +13533,10 @@
         <v>133</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13569,11 +13566,11 @@
         <v>151</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>39</v>
       </c>
@@ -13590,7 +13587,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13608,7 +13605,7 @@
         <v>39</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>39</v>
@@ -13616,7 +13613,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13642,10 +13639,10 @@
         <v>164</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13696,7 +13693,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13714,7 +13711,7 @@
         <v>39</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>39</v>
@@ -13722,7 +13719,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13748,10 +13745,10 @@
         <v>164</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13802,7 +13799,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13820,7 +13817,7 @@
         <v>39</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13828,7 +13825,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13854,10 +13851,10 @@
         <v>116</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13908,7 +13905,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13934,7 +13931,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13960,10 +13957,10 @@
         <v>116</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14014,7 +14011,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -14040,7 +14037,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14066,10 +14063,10 @@
         <v>39</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14120,7 +14117,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -14146,7 +14143,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14169,13 +14166,13 @@
         <v>39</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14226,7 +14223,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14252,7 +14249,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14278,10 +14275,10 @@
         <v>242</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14332,7 +14329,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14350,7 +14347,7 @@
         <v>39</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -14358,7 +14355,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14464,7 +14461,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14572,7 +14569,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14682,7 +14679,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14708,10 +14705,10 @@
         <v>224</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14762,7 +14759,7 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14780,7 +14777,7 @@
         <v>39</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>155</v>
@@ -14788,7 +14785,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14814,10 +14811,10 @@
         <v>104</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14868,7 +14865,7 @@
         <v>39</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14886,7 +14883,7 @@
         <v>39</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>39</v>
@@ -14894,7 +14891,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14920,10 +14917,10 @@
         <v>157</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14974,7 +14971,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14992,15 +14989,15 @@
         <v>39</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15023,13 +15020,13 @@
         <v>39</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15080,7 +15077,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -15098,7 +15095,7 @@
         <v>39</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>155</v>
@@ -15106,7 +15103,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15129,13 +15126,13 @@
         <v>39</v>
       </c>
       <c r="J119" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="K119" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="K119" t="s" s="2">
+      <c r="L119" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15186,7 +15183,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15204,7 +15201,7 @@
         <v>39</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>155</v>
@@ -15212,7 +15209,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15235,13 +15232,13 @@
         <v>39</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="L120" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15292,7 +15289,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15310,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>155</v>
@@ -15318,7 +15315,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15341,13 +15338,13 @@
         <v>39</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15398,7 +15395,7 @@
         <v>39</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -15416,7 +15413,7 @@
         <v>39</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>155</v>
@@ -15424,7 +15421,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15447,13 +15444,13 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15504,7 +15501,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15522,7 +15519,7 @@
         <v>39</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>155</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15556,10 +15553,10 @@
         <v>116</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15610,7 +15607,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15662,10 +15659,10 @@
         <v>157</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15716,7 +15713,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15742,7 +15739,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15765,13 +15762,13 @@
         <v>39</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15822,7 +15819,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15848,7 +15845,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15871,13 +15868,13 @@
         <v>39</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15928,7 +15925,7 @@
         <v>39</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15954,7 +15951,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15980,10 +15977,10 @@
         <v>116</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16034,7 +16031,7 @@
         <v>39</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -16060,7 +16057,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16083,13 +16080,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16140,7 +16137,7 @@
         <v>39</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16166,7 +16163,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16192,16 +16189,16 @@
         <v>242</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>39</v>
@@ -16250,7 +16247,7 @@
         <v>39</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16268,7 +16265,7 @@
         <v>39</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>39</v>
@@ -16276,7 +16273,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16382,7 +16379,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16490,7 +16487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16600,7 +16597,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16623,13 +16620,13 @@
         <v>39</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16680,7 +16677,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16706,7 +16703,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16732,10 +16729,10 @@
         <v>133</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16765,11 +16762,11 @@
         <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>39</v>
       </c>
@@ -16786,7 +16783,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>48</v>
@@ -16801,10 +16798,10 @@
         <v>39</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK134" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>39</v>
@@ -16812,7 +16809,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16838,10 +16835,10 @@
         <v>242</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16892,7 +16889,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16918,7 +16915,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17024,7 +17021,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17132,7 +17129,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17242,7 +17239,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17265,13 +17262,13 @@
         <v>39</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17322,7 +17319,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>48</v>
@@ -17348,7 +17345,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17374,10 +17371,10 @@
         <v>133</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17407,11 +17404,11 @@
         <v>151</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
       </c>
@@ -17428,7 +17425,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -17446,7 +17443,7 @@
         <v>39</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>39</v>
@@ -17454,7 +17451,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17480,10 +17477,10 @@
         <v>133</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17513,11 +17510,11 @@
         <v>151</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>39</v>
       </c>
@@ -17534,7 +17531,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>48</v>
@@ -17549,18 +17546,18 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK141" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AK141" t="s" s="2">
+      <c r="AL141" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>596</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17586,10 +17583,10 @@
         <v>116</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17640,7 +17637,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17666,7 +17663,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17692,10 +17689,10 @@
         <v>133</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17725,11 +17722,11 @@
         <v>151</v>
       </c>
       <c r="X143" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y143" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Y143" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="Z143" t="s" s="2">
         <v>39</v>
       </c>
@@ -17746,7 +17743,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>48</v>
@@ -17772,7 +17769,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17795,13 +17792,13 @@
         <v>39</v>
       </c>
       <c r="J144" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K144" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K144" t="s" s="2">
+      <c r="L144" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17852,7 +17849,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17878,7 +17875,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17904,10 +17901,10 @@
         <v>116</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17958,7 +17955,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17984,7 +17981,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18007,13 +18004,13 @@
         <v>39</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18064,7 +18061,7 @@
         <v>39</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18090,7 +18087,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18113,13 +18110,13 @@
         <v>39</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18170,7 +18167,7 @@
         <v>39</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -18196,7 +18193,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18222,10 +18219,10 @@
         <v>116</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18276,7 +18273,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18302,7 +18299,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18328,10 +18325,10 @@
         <v>133</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -18361,11 +18358,11 @@
         <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>39</v>
       </c>
@@ -18382,7 +18379,7 @@
         <v>39</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -18408,7 +18405,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18434,10 +18431,10 @@
         <v>133</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18467,11 +18464,11 @@
         <v>151</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="Y150" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="Z150" t="s" s="2">
         <v>39</v>
       </c>
@@ -18488,7 +18485,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -18514,7 +18511,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18537,13 +18534,13 @@
         <v>39</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18594,7 +18591,7 @@
         <v>39</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>40</v>
@@ -18620,7 +18617,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18646,10 +18643,10 @@
         <v>116</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18700,7 +18697,7 @@
         <v>39</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>40</v>
@@ -18726,7 +18723,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18752,10 +18749,10 @@
         <v>133</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18785,11 +18782,11 @@
         <v>151</v>
       </c>
       <c r="X153" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y153" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y153" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z153" t="s" s="2">
         <v>39</v>
       </c>
@@ -18806,7 +18803,7 @@
         <v>39</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
@@ -18832,7 +18829,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18855,13 +18852,13 @@
         <v>39</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18912,7 +18909,7 @@
         <v>39</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>40</v>
@@ -18938,7 +18935,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18964,10 +18961,10 @@
         <v>116</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19018,7 +19015,7 @@
         <v>39</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
@@ -19044,7 +19041,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19070,10 +19067,10 @@
         <v>116</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19124,7 +19121,7 @@
         <v>39</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
@@ -19150,7 +19147,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19173,13 +19170,13 @@
         <v>39</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="K157" t="s" s="2">
+      <c r="L157" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19230,7 +19227,7 @@
         <v>39</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19256,7 +19253,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19279,13 +19276,13 @@
         <v>39</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19336,7 +19333,7 @@
         <v>39</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
@@ -19362,7 +19359,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19388,10 +19385,10 @@
         <v>39</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19442,7 +19439,7 @@
         <v>39</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
@@ -19460,7 +19457,7 @@
         <v>39</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>155</v>
@@ -19468,7 +19465,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19494,10 +19491,10 @@
         <v>177</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19548,7 +19545,7 @@
         <v>39</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
@@ -19574,7 +19571,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19597,13 +19594,13 @@
         <v>39</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19654,7 +19651,7 @@
         <v>39</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
@@ -19680,7 +19677,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19706,16 +19703,16 @@
         <v>242</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>39</v>
@@ -19764,7 +19761,7 @@
         <v>39</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -19782,7 +19779,7 @@
         <v>39</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>39</v>
@@ -19790,7 +19787,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19896,7 +19893,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20004,7 +20001,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20114,7 +20111,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20137,13 +20134,13 @@
         <v>39</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -20173,11 +20170,11 @@
         <v>71</v>
       </c>
       <c r="X166" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y166" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y166" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z166" t="s" s="2">
         <v>39</v>
       </c>
@@ -20194,7 +20191,7 @@
         <v>39</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>48</v>
@@ -20212,15 +20209,15 @@
         <v>39</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AL166" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>676</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20243,13 +20240,13 @@
         <v>39</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20300,7 +20297,7 @@
         <v>39</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>48</v>
@@ -20315,18 +20312,18 @@
         <v>39</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AK167" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="AK167" t="s" s="2">
+      <c r="AL167" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>682</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20349,13 +20346,13 @@
         <v>39</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="K168" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="K168" t="s" s="2">
+      <c r="L168" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20406,7 +20403,7 @@
         <v>39</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>48</v>
@@ -20424,15 +20421,15 @@
         <v>39</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20458,10 +20455,10 @@
         <v>242</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20512,7 +20509,7 @@
         <v>39</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>40</v>
@@ -20530,7 +20527,7 @@
         <v>39</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>155</v>
@@ -20538,7 +20535,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20644,7 +20641,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20752,7 +20749,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20862,7 +20859,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20885,13 +20882,13 @@
         <v>39</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20942,7 +20939,7 @@
         <v>39</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>48</v>
@@ -20960,7 +20957,7 @@
         <v>39</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>155</v>
@@ -20968,7 +20965,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20994,10 +20991,10 @@
         <v>242</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21048,7 +21045,7 @@
         <v>39</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
@@ -21066,7 +21063,7 @@
         <v>39</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>155</v>
@@ -21074,7 +21071,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21180,7 +21177,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -21288,7 +21285,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -21398,7 +21395,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -21421,13 +21418,13 @@
         <v>39</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -21478,7 +21475,7 @@
         <v>39</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>48</v>
@@ -21496,7 +21493,7 @@
         <v>39</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>155</v>
@@ -21504,7 +21501,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21530,10 +21527,10 @@
         <v>242</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21584,7 +21581,7 @@
         <v>39</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>40</v>
@@ -21602,7 +21599,7 @@
         <v>39</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>155</v>
@@ -21610,7 +21607,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21716,7 +21713,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21824,7 +21821,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21934,7 +21931,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21957,13 +21954,13 @@
         <v>39</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="K183" t="s" s="2">
+      <c r="L183" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -22014,7 +22011,7 @@
         <v>39</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>48</v>
@@ -22032,7 +22029,7 @@
         <v>39</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>155</v>
@@ -22040,7 +22037,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22063,13 +22060,13 @@
         <v>39</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="K184" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="K184" t="s" s="2">
+      <c r="L184" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -22120,7 +22117,7 @@
         <v>39</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>40</v>
@@ -22138,7 +22135,7 @@
         <v>39</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>39</v>
